--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikawa\Desktop\総務\入学式\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikawa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33E9690-71C4-4A40-9C5F-03ABFA0A7E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BFABD-FB36-4BCF-9068-D70A17DCD8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{1EFACBA8-37B4-471F-BC86-CB5B04918A0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="451">
   <si>
     <t>受験番号</t>
   </si>
@@ -1404,6 +1404,22 @@
       <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>教室番号</t>
+    <rPh sb="0" eb="2">
+      <t>キョウシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G41</t>
+  </si>
+  <si>
+    <t>G31</t>
   </si>
 </sst>
 </file>
@@ -1807,9 +1823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D39287-3DEC-4BDB-ACA2-584DE762C8DC}">
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1821,7 +1839,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1840,8 +1858,11 @@
       <c r="F1" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1860,8 +1881,12 @@
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1880,8 +1905,12 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1900,8 +1929,12 @@
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="3">
+        <v>305</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1920,8 +1953,12 @@
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="3">
+        <v>305</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1940,8 +1977,12 @@
       <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="3">
+        <v>305</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1960,8 +2001,12 @@
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1980,8 +2025,12 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2000,8 +2049,12 @@
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2020,8 +2073,12 @@
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -2040,8 +2097,12 @@
       <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -2060,8 +2121,12 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -2080,8 +2145,12 @@
       <c r="F13" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="3">
+        <v>406</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -2100,8 +2169,11 @@
       <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -2120,8 +2192,11 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -2140,8 +2215,11 @@
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1016</v>
       </c>
@@ -2160,8 +2238,11 @@
       <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -2180,8 +2261,11 @@
       <c r="F18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -2200,8 +2284,11 @@
       <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -2220,8 +2307,11 @@
       <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1021</v>
       </c>
@@ -2260,8 +2353,11 @@
       <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1022</v>
       </c>
@@ -2280,8 +2376,11 @@
       <c r="F23" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>1023</v>
       </c>
@@ -2300,8 +2399,11 @@
       <c r="F24" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>1024</v>
       </c>
@@ -2320,8 +2422,11 @@
       <c r="F25" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>1025</v>
       </c>
@@ -2340,8 +2445,11 @@
       <c r="F26" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>1026</v>
       </c>
@@ -2360,8 +2468,11 @@
       <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1027</v>
       </c>
@@ -2380,8 +2491,11 @@
       <c r="F28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1028</v>
       </c>
@@ -2400,8 +2514,11 @@
       <c r="F29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1029</v>
       </c>
@@ -2420,8 +2537,11 @@
       <c r="F30" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>1030</v>
       </c>
@@ -2440,8 +2560,11 @@
       <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1031</v>
       </c>
@@ -2460,8 +2583,11 @@
       <c r="F32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1032</v>
       </c>
@@ -2480,8 +2606,11 @@
       <c r="F33" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1033</v>
       </c>
@@ -2500,8 +2629,11 @@
       <c r="F34" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -2520,8 +2652,11 @@
       <c r="F35" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -2540,8 +2675,11 @@
       <c r="F36" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -2560,8 +2698,11 @@
       <c r="F37" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1037</v>
       </c>
@@ -2580,8 +2721,11 @@
       <c r="F38" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -2600,8 +2744,11 @@
       <c r="F39" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>1039</v>
       </c>
@@ -2620,8 +2767,11 @@
       <c r="F40" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>1040</v>
       </c>
@@ -2640,8 +2790,11 @@
       <c r="F41" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>1041</v>
       </c>
@@ -2660,8 +2813,11 @@
       <c r="F42" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1042</v>
       </c>
@@ -2680,8 +2836,11 @@
       <c r="F43" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1043</v>
       </c>
@@ -2700,8 +2859,11 @@
       <c r="F44" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1044</v>
       </c>
@@ -2720,8 +2882,11 @@
       <c r="F45" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>1045</v>
       </c>
@@ -2740,8 +2905,11 @@
       <c r="F46" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G46" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1046</v>
       </c>
@@ -2760,8 +2928,11 @@
       <c r="F47" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>1047</v>
       </c>
@@ -2780,8 +2951,11 @@
       <c r="F48" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1048</v>
       </c>
@@ -2800,8 +2974,11 @@
       <c r="F49" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1049</v>
       </c>
@@ -2820,8 +2997,11 @@
       <c r="F50" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1050</v>
       </c>
@@ -2840,8 +3020,11 @@
       <c r="F51" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>1051</v>
       </c>
@@ -2860,8 +3043,11 @@
       <c r="F52" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>1052</v>
       </c>
@@ -2880,8 +3066,11 @@
       <c r="F53" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>1053</v>
       </c>
@@ -2900,8 +3089,11 @@
       <c r="F54" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>1054</v>
       </c>
@@ -2920,8 +3112,11 @@
       <c r="F55" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>1055</v>
       </c>
@@ -2940,8 +3135,11 @@
       <c r="F56" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>1056</v>
       </c>
@@ -2960,8 +3158,11 @@
       <c r="F57" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G57" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>1057</v>
       </c>
@@ -2980,8 +3181,11 @@
       <c r="F58" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G58" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>1058</v>
       </c>
@@ -3000,8 +3204,11 @@
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G59" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>1059</v>
       </c>
@@ -3020,8 +3227,11 @@
       <c r="F60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>1060</v>
       </c>
@@ -3040,8 +3250,11 @@
       <c r="F61" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G61" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>1061</v>
       </c>
@@ -3060,8 +3273,11 @@
       <c r="F62" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>1062</v>
       </c>
@@ -3080,8 +3296,11 @@
       <c r="F63" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>1063</v>
       </c>
@@ -3100,8 +3319,11 @@
       <c r="F64" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G64" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>1064</v>
       </c>
@@ -3120,8 +3342,11 @@
       <c r="F65" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>1065</v>
       </c>
@@ -3140,8 +3365,11 @@
       <c r="F66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G66" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>1066</v>
       </c>
@@ -3160,8 +3388,11 @@
       <c r="F67" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G67" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>1067</v>
       </c>
@@ -3180,8 +3411,11 @@
       <c r="F68" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G68" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>1068</v>
       </c>
@@ -3200,8 +3434,11 @@
       <c r="F69" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G69" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>1069</v>
       </c>
@@ -3220,8 +3457,11 @@
       <c r="F70" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G70" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>1070</v>
       </c>
@@ -3240,8 +3480,11 @@
       <c r="F71" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G71" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>1071</v>
       </c>
@@ -3260,8 +3503,11 @@
       <c r="F72" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G72" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>1072</v>
       </c>
@@ -3280,8 +3526,11 @@
       <c r="F73" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G73" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>1073</v>
       </c>
@@ -3300,8 +3549,11 @@
       <c r="F74" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G74" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>1074</v>
       </c>
@@ -3320,8 +3572,11 @@
       <c r="F75" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G75" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>1075</v>
       </c>
@@ -3340,8 +3595,11 @@
       <c r="F76" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G76" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>1076</v>
       </c>
@@ -3360,8 +3618,11 @@
       <c r="F77" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G77" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>1077</v>
       </c>
@@ -3380,8 +3641,11 @@
       <c r="F78" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G78" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>1078</v>
       </c>
@@ -3400,8 +3664,11 @@
       <c r="F79" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G79" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>1079</v>
       </c>
@@ -3420,8 +3687,11 @@
       <c r="F80" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G80" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>1080</v>
       </c>
@@ -3440,8 +3710,11 @@
       <c r="F81" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G81" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>1081</v>
       </c>
@@ -3460,8 +3733,11 @@
       <c r="F82" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G82" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>1082</v>
       </c>
@@ -3480,8 +3756,11 @@
       <c r="F83" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G83" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>1083</v>
       </c>
@@ -3500,8 +3779,11 @@
       <c r="F84" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G84" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>1084</v>
       </c>
@@ -3520,8 +3802,11 @@
       <c r="F85" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G85" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>1085</v>
       </c>
@@ -3540,8 +3825,11 @@
       <c r="F86" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G86" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>1086</v>
       </c>
@@ -3560,8 +3848,11 @@
       <c r="F87" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G87" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>1087</v>
       </c>
@@ -3580,8 +3871,11 @@
       <c r="F88" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G88" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>1088</v>
       </c>
@@ -3600,8 +3894,11 @@
       <c r="F89" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G89" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>1089</v>
       </c>
@@ -3620,8 +3917,11 @@
       <c r="F90" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G90" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>1090</v>
       </c>
@@ -3640,8 +3940,11 @@
       <c r="F91" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G91" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>1091</v>
       </c>
@@ -3660,8 +3963,11 @@
       <c r="F92" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G92" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>1092</v>
       </c>
@@ -3680,8 +3986,11 @@
       <c r="F93" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G93" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>1093</v>
       </c>
@@ -3700,8 +4009,11 @@
       <c r="F94" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G94" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>1094</v>
       </c>
@@ -3720,8 +4032,11 @@
       <c r="F95" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G95" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>1095</v>
       </c>
@@ -3740,8 +4055,11 @@
       <c r="F96" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G96" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>1096</v>
       </c>
@@ -3760,8 +4078,11 @@
       <c r="F97" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G97" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>1097</v>
       </c>
@@ -3780,8 +4101,11 @@
       <c r="F98" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G98" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>1098</v>
       </c>
@@ -3800,8 +4124,11 @@
       <c r="F99" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G99" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>1099</v>
       </c>
@@ -3820,8 +4147,11 @@
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G100" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>1100</v>
       </c>
@@ -3840,8 +4170,11 @@
       <c r="F101" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G101" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>1101</v>
       </c>
@@ -3860,8 +4193,11 @@
       <c r="F102" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G102" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>1102</v>
       </c>
@@ -3880,8 +4216,11 @@
       <c r="F103" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G103" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>1103</v>
       </c>
@@ -3900,8 +4239,11 @@
       <c r="F104" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G104" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>1104</v>
       </c>
@@ -3920,8 +4262,11 @@
       <c r="F105" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G105" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>1105</v>
       </c>
@@ -3940,8 +4285,11 @@
       <c r="F106" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G106" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>1106</v>
       </c>
@@ -3960,8 +4308,11 @@
       <c r="F107" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G107" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>1107</v>
       </c>
@@ -3980,8 +4331,11 @@
       <c r="F108" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G108" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>1108</v>
       </c>
@@ -4000,8 +4354,11 @@
       <c r="F109" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G109" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>1109</v>
       </c>
@@ -4020,8 +4377,11 @@
       <c r="F110" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G110" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>1110</v>
       </c>
@@ -4040,8 +4400,11 @@
       <c r="F111" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G111" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>1111</v>
       </c>
@@ -4060,8 +4423,11 @@
       <c r="F112" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G112" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>1112</v>
       </c>
@@ -4080,8 +4446,11 @@
       <c r="F113" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G113" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>1113</v>
       </c>
@@ -4100,8 +4469,11 @@
       <c r="F114" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G114" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>1114</v>
       </c>
@@ -4120,8 +4492,11 @@
       <c r="F115" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G115" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>1115</v>
       </c>
@@ -4140,8 +4515,11 @@
       <c r="F116" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G116" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>1116</v>
       </c>
@@ -4160,8 +4538,11 @@
       <c r="F117" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G117" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>1117</v>
       </c>
@@ -4180,8 +4561,11 @@
       <c r="F118" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G118" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>1118</v>
       </c>
@@ -4200,8 +4584,11 @@
       <c r="F119" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G119" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>1119</v>
       </c>
@@ -4220,8 +4607,11 @@
       <c r="F120" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G120" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>1120</v>
       </c>
@@ -4240,8 +4630,11 @@
       <c r="F121" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G121" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>1121</v>
       </c>
@@ -4260,8 +4653,11 @@
       <c r="F122" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G122" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>1122</v>
       </c>
@@ -4280,8 +4676,11 @@
       <c r="F123" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G123" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>1123</v>
       </c>
@@ -4300,8 +4699,11 @@
       <c r="F124" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G124" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>1124</v>
       </c>
@@ -4320,8 +4722,11 @@
       <c r="F125" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G125" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>1501</v>
       </c>
@@ -4340,8 +4745,11 @@
       <c r="F126" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G126" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>1502</v>
       </c>
@@ -4360,8 +4768,11 @@
       <c r="F127" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G127" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>1503</v>
       </c>
@@ -4380,8 +4791,11 @@
       <c r="F128" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>1504</v>
       </c>
@@ -4400,8 +4814,11 @@
       <c r="F129" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G129" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>1505</v>
       </c>
@@ -4420,8 +4837,11 @@
       <c r="F130" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G130" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>1506</v>
       </c>
@@ -4440,8 +4860,11 @@
       <c r="F131" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G131" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>1507</v>
       </c>
@@ -4460,8 +4883,11 @@
       <c r="F132" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G132" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>1508</v>
       </c>
@@ -4480,8 +4906,11 @@
       <c r="F133" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G133" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>1509</v>
       </c>
@@ -4500,8 +4929,11 @@
       <c r="F134" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G134" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>1510</v>
       </c>
@@ -4520,8 +4952,11 @@
       <c r="F135" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G135" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>1511</v>
       </c>
@@ -4540,8 +4975,11 @@
       <c r="F136" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G136" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>1512</v>
       </c>
@@ -4560,8 +4998,11 @@
       <c r="F137" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G137" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>1513</v>
       </c>
@@ -4580,8 +5021,11 @@
       <c r="F138" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G138" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>1514</v>
       </c>
@@ -4600,8 +5044,11 @@
       <c r="F139" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G139" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>1515</v>
       </c>
@@ -4620,8 +5067,11 @@
       <c r="F140" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G140" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>1516</v>
       </c>
@@ -4640,8 +5090,11 @@
       <c r="F141" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G141" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>1517</v>
       </c>
@@ -4660,8 +5113,11 @@
       <c r="F142" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G142" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>1518</v>
       </c>
@@ -4680,8 +5136,11 @@
       <c r="F143" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G143" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>1519</v>
       </c>
@@ -4700,8 +5159,11 @@
       <c r="F144" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G144" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>1520</v>
       </c>
@@ -4720,8 +5182,11 @@
       <c r="F145" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G145" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>1521</v>
       </c>
@@ -4740,8 +5205,11 @@
       <c r="F146" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G146" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1522</v>
       </c>
@@ -4760,8 +5228,11 @@
       <c r="F147" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G147" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1523</v>
       </c>
@@ -4780,8 +5251,11 @@
       <c r="F148" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G148" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>1524</v>
       </c>
@@ -4800,8 +5274,11 @@
       <c r="F149" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G149" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>1525</v>
       </c>
@@ -4820,8 +5297,11 @@
       <c r="F150" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G150" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>1526</v>
       </c>
@@ -4840,8 +5320,11 @@
       <c r="F151" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G151" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>1527</v>
       </c>
@@ -4860,8 +5343,11 @@
       <c r="F152" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G152" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>1528</v>
       </c>
@@ -4880,8 +5366,11 @@
       <c r="F153" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G153" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>1529</v>
       </c>
@@ -4900,8 +5389,11 @@
       <c r="F154" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G154" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>1530</v>
       </c>
@@ -4920,8 +5412,11 @@
       <c r="F155" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G155" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>1531</v>
       </c>
@@ -4940,8 +5435,11 @@
       <c r="F156" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G156" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>1532</v>
       </c>
@@ -4960,8 +5458,11 @@
       <c r="F157" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G157" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>1533</v>
       </c>
@@ -4980,8 +5481,11 @@
       <c r="F158" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G158" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1534</v>
       </c>
@@ -5000,8 +5504,11 @@
       <c r="F159" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G159" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>1535</v>
       </c>
@@ -5020,8 +5527,11 @@
       <c r="F160" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G160" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>1536</v>
       </c>
@@ -5040,8 +5550,11 @@
       <c r="F161" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G161" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>1537</v>
       </c>
@@ -5060,8 +5573,11 @@
       <c r="F162" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G162" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>1538</v>
       </c>
@@ -5080,8 +5596,11 @@
       <c r="F163" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G163" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>1539</v>
       </c>
@@ -5100,8 +5619,11 @@
       <c r="F164" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G164" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>1540</v>
       </c>
@@ -5120,8 +5642,11 @@
       <c r="F165" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G165" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>1541</v>
       </c>
@@ -5140,8 +5665,11 @@
       <c r="F166" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G166" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>1542</v>
       </c>
@@ -5160,8 +5688,11 @@
       <c r="F167" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G167" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>1543</v>
       </c>
@@ -5180,8 +5711,11 @@
       <c r="F168" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G168" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>1544</v>
       </c>
@@ -5200,8 +5734,11 @@
       <c r="F169" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G169" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>1545</v>
       </c>
@@ -5220,8 +5757,11 @@
       <c r="F170" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G170" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>1546</v>
       </c>
@@ -5240,8 +5780,11 @@
       <c r="F171" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G171" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>1547</v>
       </c>
@@ -5260,8 +5803,11 @@
       <c r="F172" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G172" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>1548</v>
       </c>
@@ -5280,8 +5826,11 @@
       <c r="F173" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G173" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>1549</v>
       </c>
@@ -5300,8 +5849,11 @@
       <c r="F174" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G174" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>1550</v>
       </c>
@@ -5320,8 +5872,11 @@
       <c r="F175" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G175" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>1551</v>
       </c>
@@ -5340,8 +5895,11 @@
       <c r="F176" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G176" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>1552</v>
       </c>
@@ -5360,8 +5918,11 @@
       <c r="F177" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G177" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>1553</v>
       </c>
@@ -5380,8 +5941,11 @@
       <c r="F178" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G178" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>1554</v>
       </c>
@@ -5400,8 +5964,11 @@
       <c r="F179" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G179" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>1555</v>
       </c>
@@ -5420,8 +5987,11 @@
       <c r="F180" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G180" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>1556</v>
       </c>
@@ -5440,8 +6010,11 @@
       <c r="F181" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G181" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>1557</v>
       </c>
@@ -5460,8 +6033,11 @@
       <c r="F182" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G182" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>1558</v>
       </c>
@@ -5480,8 +6056,11 @@
       <c r="F183" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G183" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>1559</v>
       </c>
@@ -5500,8 +6079,11 @@
       <c r="F184" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G184" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>1560</v>
       </c>
@@ -5520,8 +6102,11 @@
       <c r="F185" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G185" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>1561</v>
       </c>
@@ -5540,8 +6125,11 @@
       <c r="F186" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G186" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>1562</v>
       </c>
@@ -5560,8 +6148,11 @@
       <c r="F187" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G187" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>1563</v>
       </c>
@@ -5580,8 +6171,11 @@
       <c r="F188" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G188" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>1564</v>
       </c>
@@ -5600,8 +6194,11 @@
       <c r="F189" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G189" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>1565</v>
       </c>
@@ -5620,8 +6217,11 @@
       <c r="F190" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G190" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>1566</v>
       </c>
@@ -5640,8 +6240,11 @@
       <c r="F191" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G191" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>1567</v>
       </c>
@@ -5660,8 +6263,11 @@
       <c r="F192" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G192" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>1568</v>
       </c>
@@ -5680,8 +6286,11 @@
       <c r="F193" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G193" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>1569</v>
       </c>
@@ -5700,8 +6309,11 @@
       <c r="F194" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G194" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>1570</v>
       </c>
@@ -5720,8 +6332,11 @@
       <c r="F195" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G195" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>1571</v>
       </c>
@@ -5740,8 +6355,11 @@
       <c r="F196" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G196" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>1572</v>
       </c>
@@ -5760,8 +6378,11 @@
       <c r="F197" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G197" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>1573</v>
       </c>
@@ -5780,8 +6401,11 @@
       <c r="F198" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G198" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>1574</v>
       </c>
@@ -5800,8 +6424,11 @@
       <c r="F199" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G199" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>1575</v>
       </c>
@@ -5820,8 +6447,11 @@
       <c r="F200" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G200" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>1576</v>
       </c>
@@ -5840,8 +6470,11 @@
       <c r="F201" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G201" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>1577</v>
       </c>
@@ -5860,8 +6493,11 @@
       <c r="F202" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G202" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>1578</v>
       </c>
@@ -5880,8 +6516,11 @@
       <c r="F203" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G203" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>1579</v>
       </c>
@@ -5900,8 +6539,11 @@
       <c r="F204" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G204" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>1580</v>
       </c>
@@ -5920,8 +6562,11 @@
       <c r="F205" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G205" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>1581</v>
       </c>
@@ -5940,8 +6585,11 @@
       <c r="F206" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G206" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>1582</v>
       </c>
@@ -5960,8 +6608,11 @@
       <c r="F207" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G207" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>1583</v>
       </c>
@@ -5980,8 +6631,11 @@
       <c r="F208" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G208" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>1584</v>
       </c>
@@ -6000,8 +6654,11 @@
       <c r="F209" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G209" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>1585</v>
       </c>
@@ -6020,8 +6677,11 @@
       <c r="F210" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G210" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>1586</v>
       </c>
@@ -6040,8 +6700,11 @@
       <c r="F211" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G211" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>1587</v>
       </c>
@@ -6060,8 +6723,11 @@
       <c r="F212" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G212" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>1588</v>
       </c>
@@ -6080,8 +6746,11 @@
       <c r="F213" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G213" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>1589</v>
       </c>
@@ -6100,8 +6769,11 @@
       <c r="F214" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G214" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>1590</v>
       </c>
@@ -6120,8 +6792,11 @@
       <c r="F215" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G215" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>1591</v>
       </c>
@@ -6140,8 +6815,11 @@
       <c r="F216" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G216" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>1592</v>
       </c>
@@ -6160,8 +6838,11 @@
       <c r="F217" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G217" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>1593</v>
       </c>
@@ -6180,8 +6861,11 @@
       <c r="F218" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G218" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>1594</v>
       </c>
@@ -6200,8 +6884,11 @@
       <c r="F219" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G219" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>1595</v>
       </c>
@@ -6220,8 +6907,11 @@
       <c r="F220" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G220" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>1596</v>
       </c>
@@ -6240,8 +6930,11 @@
       <c r="F221" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G221" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>1597</v>
       </c>
@@ -6260,8 +6953,11 @@
       <c r="F222" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G222" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>1598</v>
       </c>
@@ -6280,8 +6976,11 @@
       <c r="F223" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G223" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>1599</v>
       </c>
@@ -6300,8 +6999,11 @@
       <c r="F224" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G224" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>1600</v>
       </c>
@@ -6320,8 +7022,11 @@
       <c r="F225" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G225" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>1601</v>
       </c>
@@ -6340,8 +7045,11 @@
       <c r="F226" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G226" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>1602</v>
       </c>
@@ -6360,8 +7068,11 @@
       <c r="F227" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G227" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>1603</v>
       </c>
@@ -6380,8 +7091,11 @@
       <c r="F228" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G228" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>1604</v>
       </c>
@@ -6400,8 +7114,11 @@
       <c r="F229" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G229" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>1605</v>
       </c>
@@ -6420,8 +7137,11 @@
       <c r="F230" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G230" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>1606</v>
       </c>
@@ -6440,8 +7160,11 @@
       <c r="F231" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G231" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>1607</v>
       </c>
@@ -6460,8 +7183,11 @@
       <c r="F232" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G232" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>1608</v>
       </c>
@@ -6480,8 +7206,11 @@
       <c r="F233" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G233" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>1609</v>
       </c>
@@ -6500,8 +7229,11 @@
       <c r="F234" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G234" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>1610</v>
       </c>
@@ -6520,8 +7252,11 @@
       <c r="F235" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G235" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>1611</v>
       </c>
@@ -6540,8 +7275,11 @@
       <c r="F236" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G236" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>1612</v>
       </c>
@@ -6560,8 +7298,11 @@
       <c r="F237" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G237" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>1613</v>
       </c>
@@ -6580,8 +7321,11 @@
       <c r="F238" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G238" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>1614</v>
       </c>
@@ -6600,8 +7344,11 @@
       <c r="F239" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G239" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>1615</v>
       </c>
@@ -6620,8 +7367,11 @@
       <c r="F240" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G240" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>1701</v>
       </c>
@@ -6640,8 +7390,11 @@
       <c r="F241" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G241" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>1702</v>
       </c>
@@ -6660,8 +7413,11 @@
       <c r="F242" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G242" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>1703</v>
       </c>
@@ -6680,8 +7436,11 @@
       <c r="F243" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G243" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>1704</v>
       </c>
@@ -6700,8 +7459,11 @@
       <c r="F244" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G244" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>1705</v>
       </c>
@@ -6720,8 +7482,11 @@
       <c r="F245" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G245" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>1706</v>
       </c>
@@ -6740,8 +7505,11 @@
       <c r="F246" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G246" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>1707</v>
       </c>
@@ -6760,8 +7528,11 @@
       <c r="F247" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G247" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>1708</v>
       </c>
@@ -6780,8 +7551,11 @@
       <c r="F248" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G248" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>1709</v>
       </c>
@@ -6800,8 +7574,11 @@
       <c r="F249" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G249" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>1710</v>
       </c>
@@ -6820,8 +7597,11 @@
       <c r="F250" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G250" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>1711</v>
       </c>
@@ -6840,8 +7620,11 @@
       <c r="F251" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G251" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>1712</v>
       </c>
@@ -6860,8 +7643,11 @@
       <c r="F252" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G252" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>1713</v>
       </c>
@@ -6880,8 +7666,11 @@
       <c r="F253" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G253" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>1714</v>
       </c>
@@ -6900,8 +7689,11 @@
       <c r="F254" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G254" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>1715</v>
       </c>
@@ -6920,8 +7712,11 @@
       <c r="F255" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G255" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>1716</v>
       </c>
@@ -6940,8 +7735,11 @@
       <c r="F256" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G256" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>1717</v>
       </c>
@@ -6960,8 +7758,11 @@
       <c r="F257" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G257" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>1718</v>
       </c>
@@ -6980,8 +7781,11 @@
       <c r="F258" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G258" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>1719</v>
       </c>
@@ -7000,8 +7804,11 @@
       <c r="F259" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G259" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>1720</v>
       </c>
@@ -7020,8 +7827,11 @@
       <c r="F260" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G260" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>1721</v>
       </c>
@@ -7040,8 +7850,11 @@
       <c r="F261" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G261" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>1722</v>
       </c>
@@ -7060,8 +7873,11 @@
       <c r="F262" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G262" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>1723</v>
       </c>
@@ -7080,8 +7896,11 @@
       <c r="F263" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G263" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>1724</v>
       </c>
@@ -7100,8 +7919,11 @@
       <c r="F264" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G264" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>1725</v>
       </c>
@@ -7120,8 +7942,11 @@
       <c r="F265" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G265" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>1726</v>
       </c>
@@ -7140,8 +7965,11 @@
       <c r="F266" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G266" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>1727</v>
       </c>
@@ -7160,8 +7988,11 @@
       <c r="F267" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G267" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>1728</v>
       </c>
@@ -7180,8 +8011,11 @@
       <c r="F268" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G268" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>1729</v>
       </c>
@@ -7200,8 +8034,11 @@
       <c r="F269" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G269" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>1730</v>
       </c>
@@ -7220,8 +8057,11 @@
       <c r="F270" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G270" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>1731</v>
       </c>
@@ -7240,8 +8080,11 @@
       <c r="F271" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G271" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>1732</v>
       </c>
@@ -7260,8 +8103,11 @@
       <c r="F272" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G272" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>1733</v>
       </c>
@@ -7280,8 +8126,11 @@
       <c r="F273" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G273" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>1734</v>
       </c>
@@ -7300,8 +8149,11 @@
       <c r="F274" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G274" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>1735</v>
       </c>
@@ -7320,8 +8172,11 @@
       <c r="F275" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G275" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>1736</v>
       </c>
@@ -7340,8 +8195,11 @@
       <c r="F276" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G276" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>1737</v>
       </c>
@@ -7360,8 +8218,11 @@
       <c r="F277" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G277" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>1738</v>
       </c>
@@ -7380,8 +8241,11 @@
       <c r="F278" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G278" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>1739</v>
       </c>
@@ -7400,8 +8264,11 @@
       <c r="F279" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G279" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>1740</v>
       </c>
@@ -7420,8 +8287,11 @@
       <c r="F280" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G280" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>1741</v>
       </c>
@@ -7440,8 +8310,11 @@
       <c r="F281" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G281" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>1742</v>
       </c>
@@ -7460,8 +8333,11 @@
       <c r="F282" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G282" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>1743</v>
       </c>
@@ -7480,8 +8356,11 @@
       <c r="F283" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G283" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>1744</v>
       </c>
@@ -7500,8 +8379,11 @@
       <c r="F284" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G284" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>1745</v>
       </c>
@@ -7520,8 +8402,11 @@
       <c r="F285" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G285" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>1746</v>
       </c>
@@ -7540,8 +8425,11 @@
       <c r="F286" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G286" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>1747</v>
       </c>
@@ -7560,8 +8448,11 @@
       <c r="F287" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G287" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>1748</v>
       </c>
@@ -7580,8 +8471,11 @@
       <c r="F288" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G288" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>1749</v>
       </c>
@@ -7600,8 +8494,11 @@
       <c r="F289" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G289" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>1750</v>
       </c>
@@ -7620,8 +8517,11 @@
       <c r="F290" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G290" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>1751</v>
       </c>
@@ -7640,8 +8540,11 @@
       <c r="F291" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G291" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>1752</v>
       </c>
@@ -7660,8 +8563,11 @@
       <c r="F292" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G292" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>1753</v>
       </c>
@@ -7680,8 +8586,11 @@
       <c r="F293" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G293" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>1754</v>
       </c>
@@ -7700,8 +8609,11 @@
       <c r="F294" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G294" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>1755</v>
       </c>
@@ -7720,8 +8632,11 @@
       <c r="F295" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G295" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>1756</v>
       </c>
@@ -7740,8 +8655,11 @@
       <c r="F296" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G296" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>1757</v>
       </c>
@@ -7760,8 +8678,11 @@
       <c r="F297" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G297" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>1758</v>
       </c>
@@ -7780,8 +8701,11 @@
       <c r="F298" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G298" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>1759</v>
       </c>
@@ -7800,8 +8724,11 @@
       <c r="F299" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G299" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>1760</v>
       </c>
@@ -7820,8 +8747,11 @@
       <c r="F300" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G300" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>1761</v>
       </c>
@@ -7840,8 +8770,11 @@
       <c r="F301" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G301" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>1762</v>
       </c>
@@ -7860,8 +8793,11 @@
       <c r="F302" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G302" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>1763</v>
       </c>
@@ -7880,8 +8816,11 @@
       <c r="F303" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G303" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>1764</v>
       </c>
@@ -7900,8 +8839,11 @@
       <c r="F304" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G304" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>1765</v>
       </c>
@@ -7920,8 +8862,11 @@
       <c r="F305" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G305" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <v>1766</v>
       </c>
@@ -7940,8 +8885,11 @@
       <c r="F306" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G306" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <v>1767</v>
       </c>
@@ -7960,8 +8908,11 @@
       <c r="F307" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G307" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <v>1768</v>
       </c>
@@ -7980,8 +8931,11 @@
       <c r="F308" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G308" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <v>1769</v>
       </c>
@@ -8000,8 +8954,11 @@
       <c r="F309" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G309" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <v>1770</v>
       </c>
@@ -8020,8 +8977,11 @@
       <c r="F310" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G310" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <v>1771</v>
       </c>
@@ -8040,8 +9000,11 @@
       <c r="F311" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G311" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <v>1772</v>
       </c>
@@ -8060,8 +9023,11 @@
       <c r="F312" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G312" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <v>1773</v>
       </c>
@@ -8080,8 +9046,11 @@
       <c r="F313" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G313" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <v>1774</v>
       </c>
@@ -8100,8 +9069,11 @@
       <c r="F314" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G314" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <v>1775</v>
       </c>
@@ -8120,8 +9092,11 @@
       <c r="F315" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G315" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <v>1776</v>
       </c>
@@ -8140,8 +9115,11 @@
       <c r="F316" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G316" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <v>1777</v>
       </c>
@@ -8160,8 +9138,11 @@
       <c r="F317" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G317" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <v>1778</v>
       </c>
@@ -8180,8 +9161,11 @@
       <c r="F318" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G318" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <v>1779</v>
       </c>
@@ -8200,8 +9184,11 @@
       <c r="F319" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G319" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <v>1780</v>
       </c>
@@ -8220,8 +9207,11 @@
       <c r="F320" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G320" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <v>1781</v>
       </c>
@@ -8240,8 +9230,11 @@
       <c r="F321" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G321" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <v>1782</v>
       </c>
@@ -8260,8 +9253,11 @@
       <c r="F322" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G322" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <v>1783</v>
       </c>
@@ -8280,8 +9276,11 @@
       <c r="F323" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G323" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <v>1784</v>
       </c>
@@ -8300,8 +9299,11 @@
       <c r="F324" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G324" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <v>1785</v>
       </c>
@@ -8320,8 +9322,11 @@
       <c r="F325" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G325" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <v>1786</v>
       </c>
@@ -8340,8 +9345,11 @@
       <c r="F326" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G326" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <v>1787</v>
       </c>
@@ -8360,8 +9368,11 @@
       <c r="F327" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G327" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <v>1788</v>
       </c>
@@ -8380,8 +9391,11 @@
       <c r="F328" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G328" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <v>1789</v>
       </c>
@@ -8400,8 +9414,11 @@
       <c r="F329" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G329" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <v>1790</v>
       </c>
@@ -8420,8 +9437,11 @@
       <c r="F330" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G330" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>1791</v>
       </c>
@@ -8440,8 +9460,11 @@
       <c r="F331" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G331" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <v>1792</v>
       </c>
@@ -8460,8 +9483,11 @@
       <c r="F332" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G332" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <v>1793</v>
       </c>
@@ -8480,8 +9506,11 @@
       <c r="F333" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G333" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <v>1794</v>
       </c>
@@ -8500,8 +9529,11 @@
       <c r="F334" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G334" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <v>1795</v>
       </c>
@@ -8520,8 +9552,11 @@
       <c r="F335" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G335" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <v>1796</v>
       </c>
@@ -8540,8 +9575,11 @@
       <c r="F336" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G336" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <v>1797</v>
       </c>
@@ -8560,8 +9598,11 @@
       <c r="F337" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G337" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <v>1798</v>
       </c>
@@ -8580,8 +9621,11 @@
       <c r="F338" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G338" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <v>1799</v>
       </c>
@@ -8600,8 +9644,11 @@
       <c r="F339" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G339" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <v>1800</v>
       </c>
@@ -8620,8 +9667,11 @@
       <c r="F340" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G340" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <v>1801</v>
       </c>
@@ -8640,8 +9690,11 @@
       <c r="F341" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G341" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <v>1802</v>
       </c>
@@ -8660,8 +9713,11 @@
       <c r="F342" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G342" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <v>1803</v>
       </c>
@@ -8680,8 +9736,11 @@
       <c r="F343" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G343" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <v>1804</v>
       </c>
@@ -8700,8 +9759,11 @@
       <c r="F344" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G344" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <v>1805</v>
       </c>
@@ -8720,8 +9782,11 @@
       <c r="F345" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G345" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <v>1806</v>
       </c>
@@ -8740,8 +9805,11 @@
       <c r="F346" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G346" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <v>1807</v>
       </c>
@@ -8760,8 +9828,11 @@
       <c r="F347" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G347" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <v>1808</v>
       </c>
@@ -8780,8 +9851,11 @@
       <c r="F348" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G348" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <v>1809</v>
       </c>
@@ -8800,8 +9874,11 @@
       <c r="F349" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G349" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <v>1810</v>
       </c>
@@ -8820,8 +9897,11 @@
       <c r="F350" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G350" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <v>1811</v>
       </c>
@@ -8840,8 +9920,11 @@
       <c r="F351" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G351" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <v>1812</v>
       </c>
@@ -8860,8 +9943,11 @@
       <c r="F352" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G352" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <v>1813</v>
       </c>
@@ -8880,8 +9966,11 @@
       <c r="F353" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G353" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <v>1814</v>
       </c>
@@ -8900,8 +9989,11 @@
       <c r="F354" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G354" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <v>1815</v>
       </c>
@@ -8920,8 +10012,11 @@
       <c r="F355" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G355" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <v>1816</v>
       </c>
@@ -8940,8 +10035,11 @@
       <c r="F356" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G356" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <v>1817</v>
       </c>
@@ -8960,8 +10058,11 @@
       <c r="F357" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G357" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <v>1818</v>
       </c>
@@ -8980,8 +10081,11 @@
       <c r="F358" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G358" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <v>1819</v>
       </c>
@@ -9000,8 +10104,11 @@
       <c r="F359" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G359" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <v>1820</v>
       </c>
@@ -9020,8 +10127,11 @@
       <c r="F360" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G360" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <v>1821</v>
       </c>
@@ -9040,8 +10150,11 @@
       <c r="F361" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G361" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <v>1822</v>
       </c>
@@ -9060,8 +10173,11 @@
       <c r="F362" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G362" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <v>1823</v>
       </c>
@@ -9080,8 +10196,11 @@
       <c r="F363" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G363" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <v>1824</v>
       </c>
@@ -9100,8 +10219,11 @@
       <c r="F364" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G364" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <v>1825</v>
       </c>
@@ -9120,8 +10242,11 @@
       <c r="F365" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G365" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <v>1826</v>
       </c>
@@ -9140,8 +10265,11 @@
       <c r="F366" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G366" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <v>1827</v>
       </c>
@@ -9160,8 +10288,11 @@
       <c r="F367" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G367" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <v>1828</v>
       </c>
@@ -9180,8 +10311,11 @@
       <c r="F368" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G368" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <v>1829</v>
       </c>
@@ -9200,8 +10334,11 @@
       <c r="F369" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G369" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <v>1830</v>
       </c>
@@ -9220,8 +10357,11 @@
       <c r="F370" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G370" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <v>1831</v>
       </c>
@@ -9240,8 +10380,11 @@
       <c r="F371" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G371" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <v>1832</v>
       </c>
@@ -9260,8 +10403,11 @@
       <c r="F372" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G372" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <v>1833</v>
       </c>
@@ -9280,8 +10426,11 @@
       <c r="F373" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G373" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <v>1834</v>
       </c>
@@ -9300,8 +10449,11 @@
       <c r="F374" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G374" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <v>1835</v>
       </c>
@@ -9320,8 +10472,11 @@
       <c r="F375" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G375" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <v>1836</v>
       </c>
@@ -9340,8 +10495,11 @@
       <c r="F376" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G376" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <v>1837</v>
       </c>
@@ -9360,8 +10518,11 @@
       <c r="F377" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G377" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <v>1838</v>
       </c>
@@ -9380,8 +10541,11 @@
       <c r="F378" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G378" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <v>3008</v>
       </c>
@@ -9400,8 +10564,11 @@
       <c r="F379" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G379" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <v>3170</v>
       </c>
@@ -9420,8 +10587,11 @@
       <c r="F380" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G380" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <v>3183</v>
       </c>
@@ -9440,8 +10610,11 @@
       <c r="F381" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G381" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <v>3206</v>
       </c>
@@ -9460,8 +10633,11 @@
       <c r="F382" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G382" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <v>3283</v>
       </c>
@@ -9480,8 +10656,11 @@
       <c r="F383" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G383" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <v>3291</v>
       </c>
@@ -9500,8 +10679,11 @@
       <c r="F384" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G384" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <v>3316</v>
       </c>
@@ -9520,8 +10702,11 @@
       <c r="F385" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G385" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <v>3327</v>
       </c>
@@ -9540,8 +10725,11 @@
       <c r="F386" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G386" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <v>3336</v>
       </c>
@@ -9560,8 +10748,11 @@
       <c r="F387" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G387" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <v>3347</v>
       </c>
@@ -9580,8 +10771,11 @@
       <c r="F388" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G388" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <v>3362</v>
       </c>
@@ -9600,8 +10794,11 @@
       <c r="F389" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G389" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <v>3364</v>
       </c>
@@ -9620,8 +10817,11 @@
       <c r="F390" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G390" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <v>3382</v>
       </c>
@@ -9640,8 +10840,11 @@
       <c r="F391" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G391" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <v>3396</v>
       </c>
@@ -9660,8 +10863,11 @@
       <c r="F392" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G392" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <v>3408</v>
       </c>
@@ -9680,8 +10886,11 @@
       <c r="F393" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G393" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
         <v>5019</v>
       </c>
@@ -9700,8 +10909,11 @@
       <c r="F394" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G394" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
         <v>5145</v>
       </c>
@@ -9720,8 +10932,11 @@
       <c r="F395" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G395" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
         <v>5158</v>
       </c>
@@ -9740,8 +10955,11 @@
       <c r="F396" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G396" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
         <v>5167</v>
       </c>
@@ -9760,8 +10978,11 @@
       <c r="F397" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G397" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
         <v>5256</v>
       </c>
@@ -9780,8 +11001,11 @@
       <c r="F398" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G398" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
         <v>6001</v>
       </c>
@@ -9800,8 +11024,11 @@
       <c r="F399" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G399" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A400">
         <v>6077</v>
       </c>
@@ -9820,8 +11047,11 @@
       <c r="F400" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G400" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A401">
         <v>6133</v>
       </c>
@@ -9840,8 +11070,11 @@
       <c r="F401" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G401" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A402">
         <v>6135</v>
       </c>
@@ -9860,8 +11093,11 @@
       <c r="F402" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G402" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A403">
         <v>8401</v>
       </c>
@@ -9880,8 +11116,11 @@
       <c r="F403" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G403" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
         <v>8601</v>
       </c>
@@ -9900,8 +11139,11 @@
       <c r="F404" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G404" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A405">
         <v>8602</v>
       </c>
@@ -9920,8 +11162,11 @@
       <c r="F405" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G405" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A406">
         <v>8603</v>
       </c>
@@ -9940,8 +11185,11 @@
       <c r="F406" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G406" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A407">
         <v>8604</v>
       </c>
@@ -9960,8 +11208,11 @@
       <c r="F407" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G407" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A408">
         <v>8605</v>
       </c>
@@ -9980,8 +11231,11 @@
       <c r="F408" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G408" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A409">
         <v>8606</v>
       </c>
@@ -10000,8 +11254,11 @@
       <c r="F409" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G409" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A410">
         <v>8607</v>
       </c>
@@ -10020,8 +11277,11 @@
       <c r="F410" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G410" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A411">
         <v>8608</v>
       </c>
@@ -10040,8 +11300,11 @@
       <c r="F411" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G411" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A412">
         <v>8609</v>
       </c>
@@ -10060,8 +11323,11 @@
       <c r="F412" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G412" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
         <v>8610</v>
       </c>
@@ -10079,6 +11345,9 @@
       </c>
       <c r="F413" s="3" t="s">
         <v>271</v>
+      </c>
+      <c r="G413" s="3">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
